--- a/SourceFiles/Ashramam_Items_Donors.xlsx
+++ b/SourceFiles/Ashramam_Items_Donors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>SNO</t>
   </si>
@@ -51,9 +51,6 @@
     <t>DeendayalNagar</t>
   </si>
   <si>
-    <t>200 - Drinking Steel Glasses, 75 - Steel Coffee Glasses</t>
-  </si>
-  <si>
     <t>images/Ashramam/glasses.jpg</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>SatyanarayanaCharyulu</t>
   </si>
   <si>
-    <t>Stainless Steel Dining Table</t>
-  </si>
-  <si>
     <t>Muttevi</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Sudhakar</t>
   </si>
   <si>
-    <t>Aluminium Big Cooking Vessel</t>
-  </si>
-  <si>
     <t>Vedantam</t>
   </si>
   <si>
@@ -162,10 +153,106 @@
     <t>KrishnamaCharyulu</t>
   </si>
   <si>
-    <t>Mehdipatnam</t>
-  </si>
-  <si>
-    <t>1 - Steel Almara</t>
+    <t>3 - Stainless Steel Dining Table</t>
+  </si>
+  <si>
+    <t>150 - Drinking Steel Glasses, 75 - Steel Coffee Glasses</t>
+  </si>
+  <si>
+    <t>Surendra Bhishek</t>
+  </si>
+  <si>
+    <t>Vanasthalipuram</t>
+  </si>
+  <si>
+    <t>1 - Computer, 1 - Computer Table</t>
+  </si>
+  <si>
+    <t>Gayatrinagar, Moulali</t>
+  </si>
+  <si>
+    <t>Alwal</t>
+  </si>
+  <si>
+    <t>Kondapur, Ghatkesar</t>
+  </si>
+  <si>
+    <t>Vijayapuri Colony</t>
+  </si>
+  <si>
+    <t>HMT Nagar</t>
+  </si>
+  <si>
+    <t>Sarada Nagar</t>
+  </si>
+  <si>
+    <t>1 - Steel Almara, 1 - Aluminium Vessel with lid</t>
+  </si>
+  <si>
+    <t>3 - Aluminium Big Cooking Vessel with lid</t>
+  </si>
+  <si>
+    <t>4 - Aluminium Big Cooking Vessel with lid</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Parthasarathi</t>
+  </si>
+  <si>
+    <t>1 - Aluminium Big Cooking Vessel with lid</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Vedadri</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Prabhakaracharyulu &amp; Friends</t>
+  </si>
+  <si>
+    <t>1 - Mike Set</t>
+  </si>
+  <si>
+    <t>Kishore</t>
+  </si>
+  <si>
+    <t>1 - Tea Flask</t>
+  </si>
+  <si>
+    <t>Sarangapani Iyengar</t>
+  </si>
+  <si>
+    <t>Bhavani Nagar</t>
+  </si>
+  <si>
+    <t>6 - Chairs</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Gopala Krishna</t>
+  </si>
+  <si>
+    <t>Nirmala (Bharat Gas)</t>
+  </si>
+  <si>
+    <t>1 - Gas Cylinder</t>
+  </si>
+  <si>
+    <t>Ashramam existing old items</t>
+  </si>
+  <si>
+    <t>9 - Steel Buckets, 2 - Chairs, 2 - Dustbin Drums, 99 - Glasses, 2 - Steel Water Jugs, 1 - Strainer Bowl, 2 - Tables, 2 - Water Drums, 4 - Water Cans, 1 - Aluminium Vessel with lid, 14 - Garitelu</t>
+  </si>
+  <si>
+    <t>images/Ashramam/noimage.jpg</t>
   </si>
 </sst>
 </file>
@@ -224,13 +311,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,9 +647,9 @@
     <col min="1" max="1" width="6.77734375" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,7 +669,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -589,11 +692,11 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -604,19 +707,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -627,19 +730,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -650,19 +753,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -673,19 +776,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -696,16 +799,20 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -715,16 +822,20 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -734,16 +845,20 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -753,16 +868,20 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -772,16 +891,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -791,16 +914,20 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -810,18 +937,20 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -831,18 +960,205 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
